--- a/svs_be/Excel_Files/ErrorNames.xlsx
+++ b/svs_be/Excel_Files/ErrorNames.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,74 +688,74 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>132_BANKA(PG)_SULTANGANJ(BH)_1</t>
+          <t>132_BAISI(BH)_DALKHOLA(WB)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>132_बाँका (पीजी) _सुल्तानगंज (बिहार) _1</t>
+          <t>132_बैसी (पीजी ) डुमराव (बिहार)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0322F035</t>
+          <t>03B09002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>03B82031</t>
+          <t>03664028</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EN-83</t>
+          <t>BI-21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>BI-28</t>
+          <t>WB-52</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>BH</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>WB</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>132_BANKA(PG)_SULTANGANJ(BH)_2</t>
+          <t>132_BANKA(PG)_BANKA(BH)_2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>132_बाँका (पीजी) _सुल्तानगंज (बिहार) _2</t>
+          <t>132_बाँका (पीजी) _ बाँका (बिहार) _2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0322F037</t>
+          <t>0322F031</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>03B82093</t>
+          <t>03B49046</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>EN-84</t>
+          <t>ES-03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BI-29</t>
+          <t>BI-72</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -772,457 +772,457 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>132_BIHARSHARIFF(BH)_BARHI(DV)</t>
+          <t>132_BANKA(PG)_SABOUR(BH)_1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>132_बिहारशरीफ (बिहार)_बरही (डीवी)</t>
+          <t>132_बाँका (पीजी) _सबौर (बिहार) _1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>03B7A067</t>
+          <t>0322F029</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>03D4F019</t>
+          <t>03B83007</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BI-56</t>
+          <t>EP-53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DV-51</t>
+          <t>BI-59</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>PG_ER1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>BH</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>DV</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>132_DEOTHANG_RANGIA</t>
+          <t>132_BANKA(PG)_SULTANGANJ(BH)_1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>132_देवथांग_रंगिआ</t>
+          <t>132_बाँका (पीजी) _सुल्तानगंज (बिहार) _1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>03276581</t>
+          <t>0322F035</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>No Key:18</t>
+          <t>03B82031</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NE-87</t>
+          <t>EN-83</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NE-88</t>
+          <t>BI-28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>132_GARWA(JH)_RIHAND(NR)</t>
+          <t>132_BANKA(PG)_SULTANGANJ(BH)_2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>132_गरवा (जेएच)_रिहन्द (एनआर)</t>
+          <t>132_बाँका (पीजी) _सुल्तानगंज (बिहार) _2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>03907005</t>
+          <t>0322F037</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0327A635</t>
+          <t>03B82093</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>JS-58</t>
+          <t>EN-84</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NR-08</t>
+          <t>BI-29</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>IMP_FAR_END</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>132_GELENPHU_SALAKATI(NE)</t>
+          <t>132_BIHARSHARIFF(BH)_BARHI(DV)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>132_गैलेंफू_सलाकती</t>
+          <t>132_बिहारशरीफ (बिहार)_बरही (डीवी)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>03276582</t>
+          <t>03B7A067</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>No Key:20</t>
+          <t>03D4F019</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NE-84</t>
+          <t>BI-56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NE-83</t>
+          <t>DV-51</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>BH</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>DV</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>132_KAHALGAON-STPA(PG)_LALMATIA(JH)</t>
+          <t>132_DEOTHANG_RANGIA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>132_कहलगांव-एसटीपीए (पीजी) _ललमटिय़ा (जेएच)</t>
+          <t>132_देवथांग_रंगिआ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0320E030</t>
+          <t>03276581</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0390D005</t>
+          <t>No Key:18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>KH-14</t>
+          <t>NE-87</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>JS-03</t>
+          <t>NE-88</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>132_KALABADIA(PG)_BANGRIPOSH(GR)</t>
+          <t>132_GARWA(JH)_RIHAND(NR)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>132_कालाबरिया (पीजी) _बांग्रीपोस (जीआर)</t>
+          <t>132_गरवा (जेएच)_रिहन्द (एनआर)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0321D033</t>
+          <t>03907005</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>03033004</t>
+          <t>0327A635</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ER-99</t>
+          <t>JS-58</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>OR-62</t>
+          <t>NR-08</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>IMP_FAR_END</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>132_KALABADIA(PG)_JALESWAR(GR)</t>
+          <t>132_GELENPHU_SALAKATI(NE)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>132_कालाबरिया (पीजी)_जलेश्वर(जीआर)</t>
+          <t>132_गैलेंफू_सलाकती</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0321D053</t>
+          <t>03276582</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>No Key:26</t>
+          <t>No Key:20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EM-66</t>
+          <t>NE-84</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>OR-26</t>
+          <t>NE-83</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>No Key:26</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>132_KALABADIA(PG)_BOGRA(GR)</t>
+          <t>132_KAHALGAON-STPA(PG)_LALMATIA(JH)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>132_कालाबरिया (पीजी)_बोगरा(जीआर)</t>
+          <t>132_कहलगांव-एसटीपीए (पीजी) _ललमटिय़ा (जेएच)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0321D055</t>
+          <t>0320E030</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>No Key:27</t>
+          <t>0390D005</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ET-13</t>
+          <t>KH-14</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>OR-27</t>
+          <t>JS-03</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>No Key:27</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>JH</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>220_KARMANASA(BH)_SAHUPURI(NR)_1</t>
+          <t>132_KALABADIA(PG)_BANGRIPOSH(GR)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>132_करमनासा (बिहार)_साहूपुरी (एनआर)_1</t>
+          <t>132_कालाबरिया (पीजी) _बांग्रीपोस (जीआर)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>03BCA043</t>
+          <t>0321D033</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0327A668</t>
+          <t>03033004</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BI-64</t>
+          <t>ER-99</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NR-05</t>
+          <t>OR-62</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>132_KARMANSA(BH)_CHANDULI(NR)</t>
+          <t>132_KALABADIA(PG)_JALESWAR(GR)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>132_करमनासा (बिहार)_चांदुली (एनआर)</t>
+          <t>132_कालाबरिया (पीजी)_जलेश्वर(जीआर)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>03B89023</t>
+          <t>0321D053</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>No Key:30</t>
+          <t>No Key:26</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BI-63</t>
+          <t>EM-66</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>No Key:30</t>
+          <t>OR-26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>No Key:26</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>132_KENDPOSI(JH)_JODA(GR)</t>
+          <t>132_KALABADIA(PG)_BOGRA(GR)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>132_केंदपोसी (जेएच) _जोडा (जीआर)</t>
+          <t>132_कालाबरिया (पीजी)_बोगरा(जीआर)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>03034029</t>
+          <t>0321D055</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0390A005</t>
+          <t>No Key:27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>JS-50</t>
+          <t>ET-13</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>OR-52</t>
+          <t>OR-27</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>No Key:27</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1234,205 +1234,205 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>132_KOLAGHAT(WB)_KOLGHAT(DV)</t>
+          <t>220_KARMANASA(BH)_SAHUPURI(NR)_1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>132_कोलाघाट (जेएच)_कोलाघाट (डीवी)</t>
+          <t>132_करमनासा (बिहार)_साहूपुरी (एनआर)_1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>036CE120</t>
+          <t>03BCA043</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>03D58007</t>
+          <t>0327A668</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>No Key:32</t>
+          <t>BI-64</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DV-61</t>
+          <t>NR-05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>DV</t>
+          <t>BH</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>DV</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>132_LAKHISARAI(PG)_JAMUI(BH)_1</t>
+          <t>132_KARMANSA(BH)_CHANDULI(NR)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>132 _ लखीसराय (पीजी) _ जमुई (बिहार) _1</t>
+          <t>132_करमनासा (बिहार)_चांदुली (एनआर)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>03233031</t>
+          <t>03B89023</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>03B5B016</t>
+          <t>No Key:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EN-89</t>
+          <t>BI-63</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BI-26</t>
+          <t>No Key:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>BH</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>132_LAKHISARAI(PG)_JAMUI(BH)_2</t>
+          <t>132_KENDPOSI(JH)_JODA(GR)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>132 _ लखीसराय (पीजी) _ जमुई (बिहार) _2</t>
+          <t>132_केंदपोसी (जेएच) _जोडा (जीआर)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>03233033</t>
+          <t>03034029</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>03B5B019</t>
+          <t>0390A005</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EN-90</t>
+          <t>JS-50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>BI-27</t>
+          <t>OR-52</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>132_LAKHISARAI(PG)_LAKHISARAI(BH)_1</t>
+          <t>132_KOLAGHAT(WB)_KOLGHAT(DV)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>132 _ लखीसराय (पीजी) _ लखीसराय (बिहार) _1</t>
+          <t>132_कोलाघाट (जेएच)_कोलाघाट (डीवी)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>03233027</t>
+          <t>036CE120</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>03B8A028</t>
+          <t>03D58007</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EN-51</t>
+          <t>No Key:32</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>BI-30</t>
+          <t>DV-61</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>DV</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>DV</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>132_LALMATIA(JH)_KAHALGAON(BH)_1</t>
+          <t>132_LAKHISARAI(PG)_JAMUI(BH)_1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>132_ललमटिय़ा (जेएच) _कहलगांव (बिहार) _1</t>
+          <t>132 _ लखीसराय (पीजी) _ जमुई (बिहार) _1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0390D003</t>
+          <t>03233031</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>03B47025</t>
+          <t>03B5B016</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>JS-63</t>
+          <t>EN-89</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BI-09</t>
+          <t>BI-26</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1444,116 +1444,116 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>132_MANIQUI(JH)_CHANDIL(DV)</t>
+          <t>132_LAKHISARAI(PG)_JAMUI(BH)_2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>132_मनीक (जेएच) _चांडिल (डीवी)</t>
+          <t>132 _ लखीसराय (पीजी) _ जमुई (बिहार) _2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>No Key:40</t>
+          <t>03233033</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>03D3B013</t>
+          <t>03B5B019</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>JS-56</t>
+          <t>EN-90</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DV-55</t>
+          <t>BI-27</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>DV</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>132_NAGARAUNTARI(JH)_RIHAND(NR)</t>
+          <t>132_LAKHISARAI(PG)_LAKHISARAI(BH)_1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>132_नगर उंटारी (जेएच)_रिहन्द (एनआर)</t>
+          <t>132 _ लखीसराय (पीजी) _ लखीसराय (बिहार) _1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>03941003</t>
+          <t>03233027</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0327A636</t>
+          <t>03B8A028</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>JS-20</t>
+          <t>EN-51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NR-07</t>
+          <t>BI-30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>132_PATRATU(JH)_PATRATU(DV)_1</t>
+          <t>132_LALMATIA(JH)_KAHALGAON(BH)_1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>132_पतरातू (जेएच)_पतरातू (डीवी)_1</t>
+          <t>132_ललमटिय़ा (जेएच) _कहलगांव (बिहार) _1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>03900035</t>
+          <t>0390D003</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>03D4E013</t>
+          <t>03B47025</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>JS-54</t>
+          <t>JS-63</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>No Key:48</t>
+          <t>BI-09</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1563,254 +1563,254 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>DV</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>132_PATRATU(JH)_PATRATU(DV)_2</t>
+          <t>132_MALDA(PG)_MALDA(WB)_1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>132_पतरातू (जेएच)_पतरातू (डीवी)_2</t>
+          <t>132_मालदा (पीजी) _मालदा (डब्ल्यूबी) _1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>03900077</t>
+          <t>03213031</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>03D4E016</t>
+          <t>03628006</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>JS-40</t>
+          <t>ER-59</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>No Key:49</t>
+          <t>WB-05</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>DV</t>
+          <t>WB</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>132_PURNEA(PG)_BARSOI(BH)</t>
+          <t>132_MALDA(PG)_MALDA(WB)_2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>132_पूर्णिया (पीजी) _बारसोई (बिहार)</t>
+          <t>132_मालदा (पीजी) _मालदा (डब्ल्यूबी) _2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>03215014</t>
+          <t>03213033</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>03B9B016</t>
+          <t>03628004</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ER-49</t>
+          <t>ER-58</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>BI-20</t>
+          <t>WB-06</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>WB</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>132_PURNEA(PG)_PURNEA(BH)_1</t>
+          <t>132_MANIQUI(JH)_CHANDIL(DV)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>132_पूर्णिया (पीजी) _पूर्णिया (बिहार) _1</t>
+          <t>132_मनीक (जेएच) _चांडिल (डीवी)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>03215020</t>
+          <t>No Key:40</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>03B79019</t>
+          <t>03D3B013</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ER-62</t>
+          <t>JS-56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>BI-03</t>
+          <t>DV-55</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>DV</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>132_PURNEA(PG)_PURNEA(BH)_2</t>
+          <t>132_NAGARAUNTARI(JH)_RIHAND(NR)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>132_पूर्णिया (पीजी) _पूर्णिया (बिहार) _2</t>
+          <t>132_नगर उंटारी (जेएच)_रिहन्द (एनआर)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>03215022</t>
+          <t>03941003</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>03B79022</t>
+          <t>0327A636</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ER-63</t>
+          <t>JS-20</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BI-04</t>
+          <t>NR-07</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>132_PURNEA(PG)_PURNEA(BH)_3</t>
+          <t>132_PATRATU(JH)_PATRATU(DV)_1</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>132_पूर्णिया (पीजी) _पूर्णिया (बिहार) _3</t>
+          <t>132_पतरातू (जेएच)_पतरातू (डीवी)_1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>03215016</t>
+          <t>03900035</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>03B79028</t>
+          <t>03D4E013</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ER-48</t>
+          <t>JS-54</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>BI-51</t>
+          <t>No Key:48</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>DV</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>132_RAJGIR(BH)_BARHI(DV)</t>
+          <t>132_PATRATU(JH)_PATRATU(DV)_2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>132_राजगीर (बिहार)_बरही (डीवी)</t>
+          <t>132_पतरातू (जेएच)_पतरातू (डीवी)_2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>03B2D010</t>
+          <t>03900077</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>03D4F022</t>
+          <t>03D4E016</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>BI-48</t>
+          <t>JS-40</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>No Key:54</t>
+          <t>No Key:49</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>JH</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1822,289 +1822,289 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>132_RANGIT(PG)_KURSENG(WB)</t>
+          <t>132_PURNEA(PG)_BARSOI(BH)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>132_रंगित (पीजी) _ कुरशेनग (पश्चिम बंगाल)</t>
+          <t>132_पूर्णिया (पीजी) _बारसोई (बिहार)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0321A013</t>
+          <t>03215014</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>03672010</t>
+          <t>03B9B016</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>RG-04</t>
+          <t>ER-49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>WB-57</t>
+          <t>BI-20</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>WB</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>132_RANGIT(PG)_MELLI(SI)</t>
+          <t>132_PURNEA(PG)_PURNEA(BH)_1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>132_रंगित (पीजी) _मेल्ली (सिक्किम)</t>
+          <t>132_पूर्णिया (पीजी) _पूर्णिया (बिहार) _1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0321A029</t>
+          <t>03215020</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>03F01007</t>
+          <t>03B79019</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>RG-07</t>
+          <t>ER-62</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>No Key:56</t>
+          <t>BI-03</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>132_RANGIT(PG)_RAMAM(WB)</t>
+          <t>132_PURNEA(PG)_PURNEA(BH)_2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>132_रंगित (पीजी) _ रमम (पश्चिम बंगाल)</t>
+          <t>132_पूर्णिया (पीजी) _पूर्णिया (बिहार) _2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0321A011</t>
+          <t>03215022</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>03624010</t>
+          <t>03B79022</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>RG-06</t>
+          <t>ER-63</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>WB-11</t>
+          <t>BI-04</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>WB</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>132_ROURKELA(GR)_GOELKERA(JH)</t>
+          <t>132_PURNEA(PG)_PURNEA(BH)_3</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>132_राउरकेला (जीआर)_गोईलकेरा (जेएच)</t>
+          <t>132_पूर्णिया (पीजी) _पूर्णिया (बिहार) _3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>03051007</t>
+          <t>03215016</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>03909013</t>
+          <t>03B79028</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>No Key:59</t>
+          <t>ER-48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>JS-53</t>
+          <t>BI-51</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>132_SASARAM(PG)_KUDRA(BH)</t>
+          <t>132_RAJGIR(BH)_BARHI(DV)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>132_सासाराम (पीजी)_कुदरा (बिहार)</t>
+          <t>132_राजगीर (बिहार)_बरही (डीवी)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0321C075</t>
+          <t>03B2D010</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>03B6C007</t>
+          <t>03D4F022</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ER-78</t>
+          <t>BI-48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>BI-50</t>
+          <t>No Key:54</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>BH</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>DV</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>132_SASARAM(PG)_MOHANIA(BH)</t>
+          <t>132_RANGIT(PG)_MELLI(SI)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>132_सासाराम (पीजी)_मोहनिया (बिहार)</t>
+          <t>132_रंगित (पीजी) _मेल्ली (सिक्किम)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0321C079</t>
+          <t>0321A029</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>03B6A010</t>
+          <t>03F01007</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ER-79</t>
+          <t>RG-07</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>BI-49</t>
+          <t>No Key:56</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>132_SONENAGAR(BH)_JAPLA(JH)</t>
+          <t>132_ROURKELA(GR)_GOELKERA(JH)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>132_सोननगर (बिहार)_जपला (जेएच)</t>
+          <t>132_राउरकेला (जीआर)_गोईलकेरा (जेएच)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>03B86043</t>
+          <t>03051007</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0392B016</t>
+          <t>03909013</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>BI-60</t>
+          <t>No Key:59</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>JS-64</t>
+          <t>JS-53</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2116,116 +2116,116 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>132_SONENAGAR(BH)_NAGARUNTARI(JH)</t>
+          <t>132_SASARAM(PG)_KUDRA(BH)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>132_सोननगर (बिहार)_नगर उंटारी  (जेएच)</t>
+          <t>132_सासाराम (पीजी)_कुदरा (बिहार)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>03B86034</t>
+          <t>0321C075</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>03941006</t>
+          <t>03B6C007</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>BI-66</t>
+          <t>ER-78</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>JS-19</t>
+          <t>BI-50</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
+          <t>PG_ER1</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
           <t>BH</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>JH</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>132_SULTANGANJ(BH)_DEOGHAR(JH)</t>
+          <t>132_SASARAM(PG)_MOHANIA(BH)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>132 _ सुल्तानज (बिहार) _ देवघर (जेएच)</t>
+          <t>132_सासाराम (पीजी)_मोहनिया (बिहार)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>03B82028</t>
+          <t>0321C079</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0390C003</t>
+          <t>03B6A010</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BI-61</t>
+          <t>ER-79</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>JS-65</t>
+          <t>BI-49</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>PG_ER1</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>BH</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>JH</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>132/66_Gangtok(PG)_ICT_1</t>
+          <t>132_SILUGURI220(PG)_NJP(WB)_1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>132/66_गंगटोक (पीजी)_आईसीटी_1</t>
+          <t>132_सिलिगुरी 220 (पीजी)_एनजेपी (पश्चिम बंगाल)_1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>03221007</t>
+          <t>03216022</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>No Key:69</t>
+          <t>0362D042</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EM-03</t>
+          <t>ER-53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>No Key:69</t>
+          <t>WB-03</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2235,165 +2235,165 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>WB</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>132/66_Gangtok(PG)_ICT_2</t>
+          <t>132_SONENAGAR(BH)_JAPLA(JH)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>132/66_गंगटोक (पीजी)_आईसीटी_2</t>
+          <t>132_सोननगर (बिहार)_जपला (जेएच)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>03221009</t>
+          <t>03B86043</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>No Key:70</t>
+          <t>0392B016</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EM-05</t>
+          <t>BI-60</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>No Key:70</t>
+          <t>JS-64</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>BH</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>JH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>132/66_RANGIT(PG)_ICT_1</t>
+          <t>132_SONENAGAR(BH)_NAGARUNTARI(JH)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>132/66_रंगीत (पीजी)_आईसीटी_1</t>
+          <t>132_सोननगर (बिहार)_नगर उंटारी  (जेएच)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0321A025</t>
+          <t>03B86034</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>No Key:71</t>
+          <t>03941006</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>RG-01</t>
+          <t>BI-66</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>No Key:71</t>
+          <t>JS-19</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>BH</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>JH</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>220_ALIPURDUAR(PG)_ALIPURDUAR(WB)_1</t>
+          <t>132_SULTANGANJ(BH)_DEOGHAR(JH)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>220_अलीपुरद्वार(पीजी)_अलीपुरद्वार(पश्चिम बंगाल)_1</t>
+          <t>132 _ सुल्तानज (बिहार) _ देवघर (जेएच)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0323F088</t>
+          <t>03B82028</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>No Key:72</t>
+          <t>0390C003</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ET-45</t>
+          <t>BI-61</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>WB-39</t>
+          <t>JS-65</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>BH</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>JH</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>220_ALIPURDUAR(PG)_ALIPURDUAR(WB)_2</t>
+          <t>132/66_Gangtok(PG)_ICT_1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>220_अलीपुरद्वार(पीजी)_अलीपुरद्वार(पश्चिम बंगाल)_2</t>
+          <t>132/66_गंगटोक (पीजी)_आईसीटी_1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0323F090</t>
+          <t>03221007</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No Key:73</t>
+          <t>No Key:69</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ET-46</t>
+          <t>EM-03</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>WB-40</t>
+          <t>No Key:69</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2410,32 +2410,32 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>220_ALIPURDWAR(PG)_SALAKATI(NE)_1</t>
+          <t>132/66_Gangtok(PG)_ICT_2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>400_अलीपुरद्वार(पीजी)_सालाकाटी_1</t>
+          <t>132/66_गंगटोक (पीजी)_आईसीटी_2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0323F038</t>
+          <t>03221009</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0325B241</t>
+          <t>No Key:70</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ES-56</t>
+          <t>EM-05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NE-81</t>
+          <t>No Key:70</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2445,39 +2445,39 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>IMP_FAR_END</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>220_ALIPURDWAR(PG)_SALAKATI(NE)_2</t>
+          <t>132/66_RANGIT(PG)_ICT_1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>400_अलीपुरद्वार(पीजी)_सालाकाटी_2</t>
+          <t>132/66_रंगीत (पीजी)_आईसीटी_1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0323F036</t>
+          <t>0321A025</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0325B243</t>
+          <t>No Key:71</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ES-57</t>
+          <t>RG-01</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NE-82</t>
+          <t>No Key:71</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2487,333 +2487,333 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>IMP_FAR_END</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>220_ARRAH(PG)_DUMRAON(BH)_1</t>
+          <t>220_ALIPURDUAR(PG)_ALIPURDUAR(WB)_1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>220_आरा (पीजी)_दुमरांव (बिहार)_1</t>
+          <t>220_अलीपुरद्वार(पीजी)_अलीपुरद्वार(पश्चिम बंगाल)_1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>03222001</t>
+          <t>0323F088</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>03BC4005</t>
+          <t>No Key:72</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EN-93</t>
+          <t>ET-45</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>BR-07</t>
+          <t>WB-39</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>220_ARRAH(PG)_DUMRAON(BH)_2</t>
+          <t>220_ALIPURDUAR(PG)_ALIPURDUAR(WB)_2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>220_आरा (पीजी)_दुमरांव (बिहार)_2</t>
+          <t>220_अलीपुरद्वार(पीजी)_अलीपुरद्वार(पश्चिम बंगाल)_2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>03222003</t>
+          <t>0323F090</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>03BC4007</t>
+          <t>No Key:73</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EN-94</t>
+          <t>ET-46</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>BI-32</t>
+          <t>WB-40</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>220_ARRAH(PG)_KHAGAUL(BH)_1</t>
+          <t>220_ALIPURDWAR(PG)_SALAKATI(NE)_1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>220_आरा (पीजी)_खगौल (बिहार)_1</t>
+          <t>400_अलीपुरद्वार(पीजी)_सालाकाटी_1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>03222005</t>
+          <t>0323F038</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>03B7E007</t>
+          <t>0325B241</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>EM-72</t>
+          <t>ES-56</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>BI-13</t>
+          <t>NE-81</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>IMP_FAR_END</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>220_ARRAH(PG)_KHAGAUL(BH)_2</t>
+          <t>220_ALIPURDWAR(PG)_SALAKATI(NE)_2</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>220_आरा (पीजी)_खगौल (बिहार)_2</t>
+          <t>400_अलीपुरद्वार(पीजी)_सालाकाटी_2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>03222007</t>
+          <t>0323F036</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>03B7E010</t>
+          <t>0325B243</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>EM-73</t>
+          <t>ES-57</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>BI-14</t>
+          <t>NE-82</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>IMP_FAR_END</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>220_BALIMELA(GR)_UPPER SILERU(SR)_1</t>
+          <t>220_ARRAH(PG)_KHAGAUL(BH)_1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>220_बालीमेला (जीआर)_ऊपर सिलेरू (एसआर)_1</t>
+          <t>220_आरा (पीजी)_खगौल (बिहार)_1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>03002021</t>
+          <t>03222005</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>03277288</t>
+          <t>03B7E007</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OR-15</t>
+          <t>EM-72</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>DC-05</t>
+          <t>BI-13</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>IMP_FAR_END</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>220_BOLANGIR(PG)_ BOLANGIR(GR)_1</t>
+          <t>220_ARRAH(PG)_KHAGAUL(BH)_2</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>220_बोलंगीर (पीजी) _बोलंगीर (जीआर)_1</t>
+          <t>220_आरा (पीजी)_खगौल (बिहार)_2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>03229021</t>
+          <t>03222007</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>03050019</t>
+          <t>03B7E010</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ES-23</t>
+          <t>EM-73</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>OR-18</t>
+          <t>BI-14</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>220_BOLANGIR(PG)_ BOLANGIR(GR)_2</t>
+          <t>220_BALIMELA(GR)_UPPER SILERU(SR)_1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>220_बोलंगीर (पीजी) _बोलंगीर (जीआर)_2</t>
+          <t>220_बालीमेला (जीआर)_ऊपर सिलेरू (एसआर)_1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>03229027</t>
+          <t>03002021</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>03050021</t>
+          <t>03277288</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>EH-22</t>
+          <t>OR-15</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>No Key:83</t>
+          <t>DC-05</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>IMP_FAR_END</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>220_BOLANGIR(PG)_ KESIN(GR)</t>
+          <t>220_BOLANGIR(PG)_ BOLANGIR(GR)_1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>220_बोलंगीर(पीजी)_ केसिन(जीआर)</t>
+          <t>220_बोलंगीर (पीजी) _बोलंगीर (जीआर)_1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>03229029</t>
+          <t>03229021</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>03009028</t>
+          <t>03050019</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>No Key:85</t>
+          <t>ES-23</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>No Key:85</t>
+          <t>OR-18</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2830,32 +2830,32 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>400_BOLANGIR(PG)_ MERAMUNDALI(GR)</t>
+          <t>220_BOLANGIR(PG)_ BOLANGIR(GR)_2</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>400_बोलंगीर(पीजी)_ मेरामुंडाली(जीआर)</t>
+          <t>220_बोलंगीर (पीजी) _बोलंगीर (जीआर)_2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>03229005</t>
+          <t>03229027</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>03027011</t>
+          <t>03050021</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>EP-32</t>
+          <t>EH-22</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>OR-14</t>
+          <t>No Key:83</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2872,284 +2872,284 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>220_CHANDAUTI(PG)_SONENAGAR-NEW(BH)_1</t>
+          <t>220_BOLANGIR(PG)_ KESIN(GR)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>220_चंदौती (पीजी)_सोननगर-नई (बिहार)_1</t>
+          <t>220_बोलंगीर(पीजी)_ केसिन(जीआर)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>03273072</t>
+          <t>03229029</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>03B86031</t>
+          <t>03009028</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>No Key:92</t>
+          <t>No Key:85</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>BI-42</t>
+          <t>No Key:85</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>220_CHANDAUTI(PG)_SONENAGAR-NEW(BH)_2</t>
+          <t>400_BOLANGIR(PG)_ MERAMUNDALI(GR)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>220_चंदौती (पीजी)_सोननगर-नई (बिहार)_2</t>
+          <t>400_बोलंगीर(पीजी)_ मेरामुंडाली(जीआर)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>03273070</t>
+          <t>03229005</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>03B1C015</t>
+          <t>03027011</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>No Key:93</t>
+          <t>EP-32</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>BI-43</t>
+          <t>OR-14</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>220_DALKHOLA(PG)_DALKHOLA(WB)_1</t>
+          <t>220_CHANDAUTI(PG)_SONENAGAR-NEW(BH)_1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>220_दालकोला (पीजी) _दालकोला (पश्चिम बंगाल) _1</t>
+          <t>220_चंदौती (पीजी)_सोननगर-नई (बिहार)_1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>03214016</t>
+          <t>03273072</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>03664007</t>
+          <t>03B86031</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>EP-55</t>
+          <t>No Key:92</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>WB-18</t>
+          <t>BI-42</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>WB</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>220_DALKHOLA(PG)_DALKHOLA(WB)_2</t>
+          <t>220_CHANDAUTI(PG)_SONENAGAR-NEW(BH)_2</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>220_दालकोला (पीजी) _दालकोला (पश्चिम बंगाल) _2</t>
+          <t>220_चंदौती (पीजी)_सोननगर-नई (बिहार)_2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>03214018</t>
+          <t>03273070</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>03664010</t>
+          <t>03B1C015</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>EM-96</t>
+          <t>No Key:93</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>WB-16</t>
+          <t>BI-43</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>WB</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>220_DALTONGANJ(PG)_CHATRA(JH)_1</t>
+          <t>220_DALKHOLA(PG)_GAJOL(WB)_1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>220_डालटनगंज (पीजी )_छत्रा (जेएच)_1</t>
+          <t>220_दालकोला (पीजी) _गजोल (पश्चिम बंगाल) _1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>03254055</t>
+          <t>03214008</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>03937033</t>
+          <t>036B7032</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>EH-93</t>
+          <t>EG-93</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>No Key:99</t>
+          <t>WB-43</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>WB</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>220_DALTONGANJ(PG)_CHATRA(JH)_2</t>
+          <t>220_DALKHOLA(PG)_GAJOL(WB)_2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>220_डालटनगंज (पीजी )_छत्रा (जेएच)_2</t>
+          <t>220_दालकोला (पीजी) _गजोल (पश्चिम बंगाल) _2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>03254057</t>
+          <t>03214010</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>03937036</t>
+          <t>036B7012</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ET-82</t>
+          <t>EG-94</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>No Key:100</t>
+          <t>WB-44</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>WB</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>220_DALTONGANJ(PG)_GARWA(JH)_1</t>
+          <t>220_DALTONGANJ(PG)_CHATRA(JH)_1</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>220_डालटनगंज (पीजी)_गरवा (जेएच)_1</t>
+          <t>220_डालटनगंज (पीजी )_छत्रा (जेएच)_1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>03254059</t>
+          <t>03254055</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>03938019</t>
+          <t>03937033</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ET-93</t>
+          <t>EH-93</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>No Key:101</t>
+          <t>No Key:99</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3166,32 +3166,32 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>220_DALTONGANJ(PG)_GARWA(JH)_2</t>
+          <t>220_DALTONGANJ(PG)_CHATRA(JH)_2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>220_डालटनगंज (पीजी)_गरवा (जेएच)_2</t>
+          <t>220_डालटनगंज (पीजी )_छत्रा (जेएच)_2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>03254061</t>
+          <t>03254057</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>03938016</t>
+          <t>03937036</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ET-94</t>
+          <t>ET-82</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>No Key:102</t>
+          <t>No Key:100</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3208,205 +3208,205 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>220_DUGRAPUR(PG)_PURLIA (DV)_1</t>
+          <t>220_DALTONGANJ(PG)_GARWA(JH)_1</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>220 _दुर्गापुर (पीजी)_पुरुलिया (डीवी) _1</t>
+          <t>220_डालटनगंज (पीजी)_गरवा (जेएच)_1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0320C019</t>
+          <t>03254059</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>03D51027</t>
+          <t>03938019</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ER-05</t>
+          <t>ET-93</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>No Key:110</t>
+          <t>No Key:101</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>DV</t>
+          <t>JH</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>220_DUGRAPUR(PG)_PURLIA (DV)_2</t>
+          <t>220_DALTONGANJ(PG)_GARWA(JH)_2</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>220 _दुर्गापुर (पीजी)_पुरुलिया (डीवी) _2</t>
+          <t>220_डालटनगंज (पीजी)_गरवा (जेएच)_2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0320C021</t>
+          <t>03254061</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>03D51024</t>
+          <t>03938016</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ER-06</t>
+          <t>ET-94</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>No Key:111</t>
+          <t>No Key:102</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>DV</t>
+          <t>JH</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>220_DURGAPUR(WB)_WARIA(DV)_1</t>
+          <t>220_DUGRAPUR(PG)_PURLIA (DV)_1</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>220_दुर्गापुर (पश्चिम बंगाल) _वरिय़ा (डीवी) _1</t>
+          <t>220 _दुर्गापुर (पीजी)_पुरुलिया (डीवी) _1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>03613013</t>
+          <t>0320C019</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>03D02007</t>
+          <t>03D51027</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>WB-51</t>
+          <t>ER-05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>DV-60</t>
+          <t>No Key:110</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>WB</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>DV</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>220_DURGAPUR(WB)_WARIA(DV)_2</t>
+          <t>220_DUGRAPUR(PG)_PURLIA (DV)_2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>220_दुर्गापुर (पश्चिम बंगाल) _वरिय़ा (डीवी) _2</t>
+          <t>220 _दुर्गापुर (पीजी)_पुरुलिया (डीवी) _2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>03613011</t>
+          <t>0320C021</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>03D02086</t>
+          <t>03D51024</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>WB-54</t>
+          <t>ER-06</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>DV-64</t>
+          <t>No Key:111</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>WB</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>DV</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>220_FARAKKA-STPS(PG)_LALMATIA(JH)</t>
+          <t>220_DURGAPUR(WB)_WARIA(DV)_1</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>220_फरक्का-एसटीपीएस (पीजी) _ललमटिय़ा (जेएच)</t>
+          <t>220_दुर्गापुर (पश्चिम बंगाल) _वरिय़ा (डीवी) _1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>03228059</t>
+          <t>03613013</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>03211003</t>
+          <t>03D02007</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FK-14</t>
+          <t>WB-51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>No Key:114</t>
+          <t>DV-60</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>WB</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3418,158 +3418,158 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>220_GAYA(PG)_BODHGAYA(BH)_1</t>
+          <t>220_DURGAPUR(WB)_WARIA(DV)_2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>220_गया (पीजी)_बोधगया (बिहार) _1</t>
+          <t>220_दुर्गापुर (पश्चिम बंगाल) _वरिय़ा (डीवी) _2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>03227049</t>
+          <t>03613011</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>03B84010</t>
+          <t>03D02086</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>EP-13</t>
+          <t>WB-54</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>BI-15</t>
+          <t>DV-64</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>WB</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>220_JEYPORE(PG)_JAYANAGAR(GR)_3</t>
+          <t>220_FARAKKA-STPS(PG)_LALMATIA(JH)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>220_जेयपोर(पीजी)_जयनगर(जीआर)_3</t>
+          <t>220_फरक्का-एसटीपीएस (पीजी) _ललमटिय़ा (जेएच)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>03200052</t>
+          <t>03228059</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>03001056</t>
+          <t>03211003</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>No Key:124</t>
+          <t>FK-14</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>No Key:124</t>
+          <t>No Key:114</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>No Key:124</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>220_JEYPORE(PG)_JAYANAGAR(GR)_4</t>
+          <t>220_GAYA(PG)_BODHGAYA(BH)_1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>220_जेयपोर(पीजी)_जयनगर(जीआर)_4</t>
+          <t>220_गया (पीजी)_बोधगया (बिहार) _1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>03200054</t>
+          <t>03227049</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>03001058</t>
+          <t>03B84010</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>No Key:125</t>
+          <t>EP-13</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>No Key:125</t>
+          <t>BI-15</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>No Key:125</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>220_KISHANGANJ(PG)_KISHANGANJ(BH)_1</t>
+          <t>220_GAYA(PG)_BODHGAYA(BH)_2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>220_किशनगंज (पीजी)_किशनगंज (बिहार)_1</t>
+          <t>220_गया (पीजी)_बोधगया (बिहार) _2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0323B045</t>
+          <t>03227047</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>03B23015</t>
+          <t>03B84007</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ES-47</t>
+          <t>EP-14</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>BI-36</t>
+          <t>BI-16</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3586,158 +3586,158 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>220_MUZAFFARPURR(PG)_GARAUL(BH)_1</t>
+          <t>220_JEYPORE(PG)_JAYANAGAR(GR)_3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>220_मुजफ्फरपुर(पीजी)_गरौल(बिहार)_1</t>
+          <t>220_जेयपोर(पीजी)_जयनगर(जीआर)_3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>03220072</t>
+          <t>03200052</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>03BCD013</t>
+          <t>03001056</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>EQ-05</t>
+          <t>No Key:124</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>BR-27</t>
+          <t>No Key:124</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>No Key:124</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>220_MUZAFFARPURR(PG)_GARAUL(BH)_2</t>
+          <t>220_JEYPORE(PG)_JAYANAGAR(GR)_4</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>220_मुजफ्फरपुर(पीजी)_गरौल(बिहार)_2</t>
+          <t>220_जेयपोर(पीजी)_जयनगर(जीआर)_4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>03220070</t>
+          <t>03200054</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>03BCD016</t>
+          <t>03001058</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>EQ-06</t>
+          <t>No Key:125</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>BR-28</t>
+          <t>No Key:125</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>No Key:125</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>220_MUZAFFARPURR(PG)_KBUNL(BH)_1</t>
+          <t>220_KEONJHOR(PG)_ KEONJHOR(GR)_1</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>220 मुजफ्फरपुर (पीजी) _ केबीयूएनएल (बिहार) _1</t>
+          <t>220_क्‍योंझर (पीजी)_क्‍योंझर (जीआर)_1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>03220042</t>
+          <t>0322A027</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>03B1A031</t>
+          <t>03156008</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>EM-31</t>
+          <t>EG-51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>BI-68</t>
+          <t>OR-30</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>220_MUZAFFARPURR(PG)_KBUNL(BH)_2</t>
+          <t>220_KISHANGANJ(PG)_KISHANGANJ(BH)_1</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>220 मुजफ्फरपुर (पीजी) _ केबीयूएनएल (बिहार) _2</t>
+          <t>220_किशनगंज (पीजी)_किशनगंज (बिहार)_1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>03220046</t>
+          <t>0323B045</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>03B1A033</t>
+          <t>03B23015</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>EM-32</t>
+          <t>ES-47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>BI-69</t>
+          <t>BI-36</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3754,32 +3754,32 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>220_PATNA(PG)_KHAGAUL(BH)_1</t>
+          <t>220_MUZAFFARPURR(PG)_KBUNL(BH)_1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>220_पटना (पीजी) _खगौल (बिहार)_1</t>
+          <t>220 मुजफ्फरपुर (पीजी) _ केबीयूएनएल (बिहार) _1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>03203057</t>
+          <t>03220042</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>03B94003</t>
+          <t>03B1A031</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>EM-65</t>
+          <t>EM-31</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>BI-40</t>
+          <t>BI-68</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3796,32 +3796,32 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>220_PATNA(PG)_KHAGAUL(BH)_2</t>
+          <t>220_MUZAFFARPURR(PG)_KBUNL(BH)_2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>220_पटना (पीजी) _खगौल (बिहार)_2</t>
+          <t>220 मुजफ्फरपुर (पीजी) _ केबीयूएनएल (बिहार) _2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>03203059</t>
+          <t>03220046</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>03B94005</t>
+          <t>03B1A033</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>EG-78</t>
+          <t>EM-32</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>BI-41</t>
+          <t>BI-69</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3838,32 +3838,32 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>220_PATNA(PG)_SIPARA(BH)_3</t>
+          <t>220_PATNA(PG)_FATWA-NEW(BH)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>220_पटना (पीजी)_सिपारा (बिहार) _3</t>
+          <t>220_पटना (पीजी) _फतवा-नई (बिहार)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>03203050</t>
+          <t>03203021</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>03B30102</t>
+          <t>03B7C018</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ET-54</t>
+          <t>EM-64</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>BI-80</t>
+          <t>BI-23</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3880,32 +3880,32 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>220_PURNEA-NEW(PG)_KHAGARIA(BH)_1</t>
+          <t>220_PATNA(PG)_KHAGAUL(BH)_3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>220_पूर्णिया-नई (पीजी) _खगरिया (बिहार) _1</t>
+          <t>220_पटना (पीजी) _खगौल (बिहार)_3</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0321B056</t>
+          <t>03203023</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>03B98034</t>
+          <t>03B7E016</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ET-99</t>
+          <t>EG-77</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>BR-06</t>
+          <t>BI-22</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3922,32 +3922,32 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>220_PURNEA-NEW(PG)_KHAGARIA(BH)_2</t>
+          <t>220_PATNA(PG)_SIPARA(BH)_3</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>220_पूर्णिया-नई (पीजी) _खगरिया (बिहार) _2</t>
+          <t>220_पटना (पीजी)_सिपारा (बिहार) _3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0321B058</t>
+          <t>03203050</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>03B98031</t>
+          <t>03B30102</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>EG-01</t>
+          <t>ET-54</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>BR-05</t>
+          <t>BI-80</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3964,74 +3964,74 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>220_RAMCHANDRAPUR(JH)_JODA(GR)</t>
+          <t>220_PURNEA-NEW(PG)_KHAGARIA(BH)_1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>220_रामचंद्रपुर (जेएच) _जोडा  (जीआर)_1</t>
+          <t>220_पूर्णिया-नई (पीजी) _खगरिया (बिहार) _1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>03903031</t>
+          <t>0321B056</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>03034005</t>
+          <t>03B98034</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>JS-51</t>
+          <t>ET-99</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>OR-53</t>
+          <t>BR-06</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>220_RANCHI(PG)_CHANDIL(JH)_1</t>
+          <t>220_PURNEA-NEW(PG)_KHAGARIA(BH)_2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>220 _रांची (पीजी)_चांडिल (जेएच) _1</t>
+          <t>220_पूर्णिया-नई (पीजी) _खगरिया (बिहार) _2</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0320B028</t>
+          <t>0321B058</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>03902009</t>
+          <t>03B98031</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>EM-45</t>
+          <t>EG-01</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>JS-05</t>
+          <t>BR-05</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4041,39 +4041,39 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>220_RANCHI(PG)_HATIA-NEW(JH)_2</t>
+          <t>220_PURNEA-NEW(PG)_MADHEPURA(BH)_2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>220 _रांची (पीजी)_ हटिया-नई (जेएच) _2</t>
+          <t>220_पूर्णिया-नई (पीजी) _मधेपुरा (बिहार) _2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0320B026</t>
+          <t>0321B048</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0390E025</t>
+          <t>03B31016</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>EM-44</t>
+          <t>EP-84</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>JS-06</t>
+          <t>BI-06</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4083,49 +4083,49 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>JH</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>220_SASARAM(PG)_SAHUPURI(NR)</t>
+          <t>220_RANCHI(PG)_HATIA-NEW(JH)_2</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>220_सासाराम(पीजी)_करम(बीएच)</t>
+          <t>220 _रांची (पीजी)_ हटिया-नई (जेएच) _2</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0321C057</t>
+          <t>0320B026</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>03BCA046</t>
+          <t>0390E025</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ER-56</t>
+          <t>EM-44</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>NR-03</t>
+          <t>JS-06</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>No Key:176</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>JH</t>
         </is>
       </c>
     </row>
@@ -4300,32 +4300,32 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>220_SUBHASGRAM(PG)_KCL BANTALA(WB)</t>
+          <t>220_SUBHASGRAM(PG)_EMBYPASS(WB)_1</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>220_सुभाषग्राम (पीजी) _केसीएल बोंटाला (पश्चिम बंगाल)</t>
+          <t>220_सुभाषग्राम (पीजी)_ ईएमबाईपास (पश्चिम बंगाल)_1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0321E046</t>
+          <t>0321E027</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>03686007</t>
+          <t>036A0049</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>EN-61</t>
+          <t>EP-72</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>WB-36</t>
+          <t>WB-62</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4384,32 +4384,32 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>220_TALCHER(PG)_RENGALI(GR)</t>
+          <t>220_TALCHER(PG)_TTPS(GR)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>220 _तालचेर(पीजी)_रेंगाली (जीआर)</t>
+          <t>220 _तालचेर (पीजी)_टीटीपीएस (जीआर)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>03206083</t>
+          <t>03206081</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>03030007</t>
+          <t>03028025</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>TL-10</t>
+          <t>TL-09</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>OR-11</t>
+          <t>OR-12</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4426,74 +4426,74 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>220_TALCHER(PG)_TTPS(GR)</t>
+          <t>400_Alipurduar(PG)_Agra HVDC Pole-3 (NR)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>220 _तालचेर (पीजी)_टीटीपीएस (जीआर)</t>
+          <t>400 _अलीपुरद्वार (पीजी)_आगरा एचवीडीसी पोल-3 (एनआर)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>03206081</t>
+          <t>0323F051</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>03028025</t>
+          <t>No Key:191</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>TL-09</t>
+          <t>AA-03</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>OR-12</t>
+          <t>NR-24</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>400_Alipurduar(PG)_Agra HVDC Pole-3 (NR)</t>
+          <t>400_Alipurduar(PG)_Agra HVDC Pole-4 (NR)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>400 _अलीपुरद्वार (पीजी)_आगरा एचवीडीसी पोल-3 (एनआर)</t>
+          <t>400 _अलीपुरद्वार (पीजी)_आगरा एचवीडीसी पोल-4 (एनआर)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0323F051</t>
+          <t>0323F062</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>No Key:191</t>
+          <t>No Key:192</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>AA-03</t>
+          <t>AA-04</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>NR-24</t>
+          <t>NR-30</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4510,32 +4510,32 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>400_Alipurduar(PG)_Agra HVDC Pole-4 (NR)</t>
+          <t>400_ALIPURDWAR(PG)_BONGAIGOAN(NE)_1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>400 _अलीपुरद्वार (पीजी)_आगरा एचवीडीसी पोल-4 (एनआर)</t>
+          <t>400_अलीपुरद्वार(पीजी)_बोंगईगांव_1</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0323F062</t>
+          <t>0323F025</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>No Key:192</t>
+          <t>No Key:193</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>AA-04</t>
+          <t>ES-65</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>NR-30</t>
+          <t>NE-89</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4552,32 +4552,32 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>400_ALIPURDWAR(PG)_BONGAIGOAN(NE)_1</t>
+          <t>400_ALIPURDWAR(PG)_BONGAIGOAN(NE)_2</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>400_अलीपुरद्वार(पीजी)_बोंगईगांव_1</t>
+          <t>400_अलीपुरद्वार(पीजी)_बोंगईगांव_2</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0323F025</t>
+          <t>0323F027</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>No Key:193</t>
+          <t>No Key:194</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ES-65</t>
+          <t>ES-66</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>NE-89</t>
+          <t>NE-90</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4594,74 +4594,74 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>400_ALIPURDWAR(PG)_BONGAIGOAN(NE)_2</t>
+          <t>400_ANGUL(PG)_MERAMANDALI(GR)_1</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>400_अलीपुरद्वार(पीजी)_बोंगईगांव_2</t>
+          <t>400_ अंगुल (पीजी) _मीरामडली(जीआर) _1</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0323F027</t>
+          <t>0322C007</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>No Key:194</t>
+          <t>No Key:195</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ES-66</t>
+          <t>EP-71</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>NE-90</t>
+          <t>No Key:195</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>400_ANGUL(PG)_MERAMANDALI(GR)_1</t>
+          <t>400_ANGUL(PG)_MERAMANDALI(GR)_2</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>400_ अंगुल (पीजी) _मीरामडली(जीआर) _1</t>
+          <t>400_ अंगुल (पीजी) _मीरामडली(जीआर) _2</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0322C007</t>
+          <t>0322C012</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>No Key:195</t>
+          <t>No Key:196</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>EP-71</t>
+          <t>EN-32</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>No Key:195</t>
+          <t>No Key:196</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4678,74 +4678,74 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>400_ANGUL(PG)_MERAMANDALI(GR)_2</t>
+          <t>400_BAHARAMPUR(PG)_BHVDC(B'DESH)_1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>400_ अंगुल (पीजी) _मीरामडली(जीआर) _2</t>
+          <t>400_बहरमपुर (पीजी)_बेहरामारा (बांग्लादेश)_1</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0322C012</t>
+          <t>03210009</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>No Key:196</t>
+          <t>03231011</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>EN-32</t>
+          <t>EP-93</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>No Key:196</t>
+          <t>No Key:197</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>IMP_FAR_END</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>400_BAHARAMPUR(PG)_BHVDC(B'DESH)_1</t>
+          <t>400_BAHARAMPUR(PG)_BHVDC(B'DESH)_2</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>400_बहरमपुर (पीजी)_बेहरामारा (बांग्लादेश)_1</t>
+          <t>400_बहरमपुर (पीजी)_बेहरामारा (बांग्लादेश)_2</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>03210009</t>
+          <t>03210011</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>03231011</t>
+          <t>03231009</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>EP-93</t>
+          <t>EP-95</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>No Key:197</t>
+          <t>No Key:198</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -4762,32 +4762,32 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>400_BAHARAMPUR(PG)_BHVDC(B'DESH)_2</t>
+          <t>400_BAHARAMPUR(PG)_BHVDC(B'DESH)_3</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>400_बहरमपुर (पीजी)_बेहरामारा (बांग्लादेश)_2</t>
+          <t>400_बहरमपुर (पीजी)_बेहरामारा (बांग्लादेश)_3</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>03210011</t>
+          <t>03210021</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>03231009</t>
+          <t>03231114</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EP-95</t>
+          <t>EH-16</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>No Key:198</t>
+          <t>No Key:199</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4804,32 +4804,32 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>400_BAHARAMPUR(PG)_BHVDC(B'DESH)_3</t>
+          <t>400_BAHARAMPUR(PG)_BHVDC(B'DESH)_4</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>400_बहरमपुर (पीजी)_बेहरामारा (बांग्लादेश)_3</t>
+          <t>400_बहरमपुर (पीजी)_बेहरामारा (बांग्लादेश)_4</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>03210021</t>
+          <t>03210023</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>03231114</t>
+          <t>03231116</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>EH-16</t>
+          <t>EH-18</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>No Key:199</t>
+          <t>No Key:200</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4846,79 +4846,79 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>400_BAHARAMPUR(PG)_BHVDC(B'DESH)_4</t>
+          <t>400_NAUBATPUR(BH)_1_BALIA(NR)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>400_बहरमपुर (पीजी)_बेहरामारा (बांग्लादेश)_4</t>
+          <t>400_नौबतपुर(बीएच)_1_बलिया(एनआर)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>03210023</t>
+          <t>03BCB131</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>03231116</t>
+          <t>No Key:203</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>EH-18</t>
+          <t>BR-13</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>No Key:200</t>
+          <t>NR-15</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>No Key:203</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>IMP_FAR_END</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>400_NAUBATPUR(BH)_1_BALIA(NR)</t>
+          <t>400_NAUBATPUR(BH)_2_BALIA(NR)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>400_नौबतपुर(बीएच)_1_बलिया(एनआर)</t>
+          <t>400_नौबतपुर(बीएच)_2_बलिया(एनआर)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>03BCB131</t>
+          <t>03BCB128</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>No Key:203</t>
+          <t>No Key:204</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>BR-13</t>
+          <t>BR-14</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>NR-15</t>
+          <t>NR-16</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>No Key:203</t>
+          <t>No Key:204</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4930,74 +4930,74 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>400_NAUBATPUR(BH)_2_BALIA(NR)</t>
+          <t>400_BIHARSHARIFF(PG)_VARANASI(NR)_1</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>400_नौबतपुर(बीएच)_2_बलिया(एनआर)</t>
+          <t>400_बिहारशरीफ (पीजी) _वाराणसी (एनआर) _1</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>03BCB128</t>
+          <t>0320F053</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>No Key:204</t>
+          <t>0327A197</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>BR-14</t>
+          <t>EP-03</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>NR-16</t>
+          <t>NR-22</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>No Key:204</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>400_BIHARSHARIFF(PG)_BALIA(NR)_1</t>
+          <t>400_BIHARSHARIFF(PG)_VARANASI(NR)_2</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>400_बिहारशरीफ (पीजी) _बलिया (एनआर) _1</t>
+          <t>400_बिहारशरीफ (पीजी) _वाराणसी (एनआर) _2</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0320F032</t>
+          <t>0320F051</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0327A182</t>
+          <t>0327A199</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>EM-21</t>
+          <t>EP-04</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>NR-13</t>
+          <t>NR23</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5014,116 +5014,116 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>400_BIHARSHARIFF(PG)_BALIA(NR)_2</t>
+          <t>400_FARAKKA(PG)_SAGARDIGHI(WB)_2</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>400_बिहारशरीफ (पीजी) _बलिया (एनआर) _2</t>
+          <t>400_फरक्का (पीजी) _सागरदिघी (पश्चिम बंगाल) _2</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0320F027</t>
+          <t>0320D033</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0327A184</t>
+          <t>03630054</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>EM-22</t>
+          <t>FK-15</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>NR-14</t>
+          <t>WB-64</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>WB</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>400_BIHARSHARIFF(PG)_VARANASI(NR)_1</t>
+          <t>400_INDRAVATHI(PG)_INDRAVATHI(GR)_1</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>400_बिहारशरीफ (पीजी) _वाराणसी (एनआर) _1</t>
+          <t>400 _इंद्रावती(पीजी)_ इंद्रावती (जीआर)_1</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0320F053</t>
+          <t>03202005</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0327A197</t>
+          <t>03008005</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>EP-03</t>
+          <t>ER-86</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>NR-22</t>
+          <t>OR-13</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>400_BIHARSHARIFF(PG)_VARANASI(NR)_2</t>
+          <t>400_JAMSHEDPUR(PG)_MEJIA B(DV)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>400_बिहारशरीफ (पीजी) _वाराणसी (एनआर) _2</t>
+          <t>400_जमशेदपुर (पीजी)_मेजिया बी (डीवी)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0320F051</t>
+          <t>03209014</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0327A199</t>
+          <t>03D16005</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>EP-04</t>
+          <t>EM-76</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>NR23</t>
+          <t>DV-05</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5133,39 +5133,39 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>DV</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>400_FARAKKA(PG)_RAJARHAT(WB)</t>
+          <t>400_JEERAT(PG)_SUBHASHGRAM(PG)_1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">400_फरक्का (पीजी) _राजरहाट (पश्चिम बंगाल) </t>
+          <t>400_जीरात(पीजी)_सुभाषग्राम(पीजी)_1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>03228076</t>
+          <t>0326E030</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>03242009</t>
+          <t>0321E059</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>FK-36</t>
+          <t>No Key:229</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>EG-82</t>
+          <t>EQ-09</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5175,39 +5175,39 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>WB</t>
+          <t>PG_ER2</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>400_FARAKKA(PG)_SAGARDIGHI(WB)_2</t>
+          <t>400_JEERAT(PG)_SUBHASHGRAM(PG)_2</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>400_फरक्का (पीजी) _सागरदिघी (पश्चिम बंगाल) _2</t>
+          <t>400_जीरात(पीजी)_सुभाषग्राम(पीजी)_2</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0320D033</t>
+          <t>0326E033</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>03630054</t>
+          <t>0321E057</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>FK-15</t>
+          <t>No Key:230</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>WB-64</t>
+          <t>EQ-10</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -5217,39 +5217,39 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>WB</t>
+          <t>PG_ER2</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>400_INDRAVATHI(PG)_INDRAVATHI(GR)_1</t>
+          <t>400_JEYPORE(PG)_GAZUWAKA(SR)_1</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>400 _इंद्रावती(पीजी)_ इंद्रावती (जीआर)_1</t>
+          <t>400_जयपोर(पीजी)_गजुवाका (एसआर) _1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>03202005</t>
+          <t>03200010</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>03008005</t>
+          <t>03277295</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ER-86</t>
+          <t>ER-84</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>OR-13</t>
+          <t>No Key:231</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -5259,464 +5259,464 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>IMP_FAR_END</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>400_JAMSHEDPUR(PG)_MEJIA B(DV)</t>
+          <t>400_JEYPORE(PG)_GAZUWAKA(SR)_2</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>400_जमशेदपुर (पीजी)_मेजिया बी (डीवी)</t>
+          <t>400_जयपोर(पीजी)_गजुवाका (एसआर) _2</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>03209014</t>
+          <t>03200007</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>03D16005</t>
+          <t>0327A667</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>EM-76</t>
+          <t>ER-85</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>DV-05</t>
+          <t>No Key:232</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>DV</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>400_JAMSHEDPUR(PG)_TISCO(DV)_1</t>
+          <t>400_JHARSGUDA(PG)_STERLITE(GR)_2</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>400_जमशेदपुर (पीजी)_टिस्को (डीवी) _1</t>
+          <t>400_झारसुगुड़ा (पीजी) _स्टरलाइट (जीआर) _2</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>03209029</t>
+          <t>0324E056</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>03D1D005</t>
+          <t>03077015</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>EP-44</t>
+          <t>ET-18</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>No Key:228</t>
+          <t>ST-09</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>DV</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>400_JEERAT(PG)_SUBHASHGRAM(PG)_1</t>
+          <t>400_JHARSUGUDA(PG)_RAIGARH(WR)_3</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>400_जीरात(पीजी)_सुभाषग्राम(पीजी)_1</t>
+          <t>400_झारसुगुड़ा (पीजी) _रायगढ़ (डब्ल्यू आर) _3</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0326E030</t>
+          <t>0324E060</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0321E059</t>
+          <t>No Key:239</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>No Key:229</t>
+          <t>ET-31</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>EQ-09</t>
+          <t>CS-58</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>IMP_FAR_END</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>400_JEERAT(PG)_SUBHASHGRAM(PG)_2</t>
+          <t>400_JHARSUGUDA(PG)_RAIGARH(WR)_4</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>400_जीरात(पीजी)_सुभाषग्राम(पीजी)_2</t>
+          <t>400_झारसुगुड़ा (पीजी) _रायगढ़ (डब्ल्यू आर) _4</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0326E033</t>
+          <t>0324E058</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0321E057</t>
+          <t>No Key:240</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>No Key:230</t>
+          <t>ET-32</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>EQ-10</t>
+          <t>CS-63</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>IMP_FAR_END</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>400_JEYPORE(PG)_GAZUWAKA(SR)_1</t>
+          <t>400_MEDINIPUR(PG)_CHANDITALA(WB)_1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>400_जयपोर(पीजी)_गजुवाका (एसआर) _1</t>
+          <t>400_मेदिनापुर(पीजी)_चंडीतला(पश्चिम बंगाल)_1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>03200010</t>
+          <t>0326D044</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>03277295</t>
+          <t>03684013</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ER-84</t>
+          <t>EH-45</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>No Key:231</t>
+          <t>No Key:249</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>IMP_FAR_END</t>
+          <t>WB</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>400_JEYPORE(PG)_GAZUWAKA(SR)_2</t>
+          <t>400_MEDINIPUR(PG)_CHANDITALA(WB)_2</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>400_जयपोर(पीजी)_गजुवाका (एसआर) _2</t>
+          <t>400_मेदिनापुर(पीजी)_चंडीतला(पश्चिम बंगाल)_2</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>03200007</t>
+          <t>0326D047</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>0327A667</t>
+          <t>03684016</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ER-85</t>
+          <t>EH-46</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>No Key:232</t>
+          <t>No Key:250</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>WB</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>400_JHARSGUDA(PG)_STERLITE(GR)_1</t>
+          <t>400_MEDNIPUR(PG)_KHARAGPUR(WB) _1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>400_झारसुगुड़ा (पीजी) _स्टरलाइट (जीआर) _1</t>
+          <t>400 _मेदिनीपुर (पीजी) _ खड़गपुर (पश्चिम बंगाल) _1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>0324E054</t>
+          <t>0326D039</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>03077013</t>
+          <t>03682023</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ET-16</t>
+          <t>EH-43</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>ST-10</t>
+          <t>No Key:251</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>WB</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>400_JHARSGUDA(PG)_STERLITE(GR)_2</t>
+          <t>400_MEDNIPUR(PG)_KHARAGPUR(WB) _2</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>400_झारसुगुड़ा (पीजी) _स्टरलाइट (जीआर) _2</t>
+          <t>400 _मेदिनीपुर (पीजी) _ खड़गपुर (पश्चिम बंगाल) _2</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0324E056</t>
+          <t>0326D042</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>03077015</t>
+          <t>03682020</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ET-18</t>
+          <t>EH-44</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>ST-09</t>
+          <t>No Key:252</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>WB</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>400_JHARSUGUDA(PG)_RAIGARH(WR)_3</t>
+          <t>400_MUZAFFERPUR(PG)_DHALKABARI(NEPAL)_1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>400_झारसुगुड़ा (पीजी) _रायगढ़ (डब्ल्यू आर) _3</t>
+          <t>400_मुजफ्फरपुर (पीजी) _ धलकेबार (नेपाल) _1</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>0324E060</t>
+          <t>03220076</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>No Key:239</t>
+          <t>No Key:255</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ET-31</t>
+          <t>ES-07</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>CS-58</t>
+          <t>NP-02</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>IMP_FAR_END</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>400_JHARSUGUDA(PG)_RAIGARH(WR)_4</t>
+          <t>400_MUZAFFERPUR(PG)_DHALKABARI(NEPAL)_2</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>400_झारसुगुड़ा (पीजी) _रायगढ़ (डब्ल्यू आर) _4</t>
+          <t>400_मुजफ्फरपुर (पीजी) _ धलकेबार (नेपाल) _2</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0324E058</t>
+          <t>03220074</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>No Key:240</t>
+          <t>No Key:256</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ET-32</t>
+          <t>ES-09</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>CS-63</t>
+          <t>NP-03</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>IMP_FAR_END</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>400_MEDINIPUR(PG)_CHANDITALA(WB)_1</t>
+          <t>400_NEW RANCHI(PG)_PPSP(WB)_1</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>400_मेदिनापुर(पीजी)_चंडीतला(पश्चिम बंगाल)_1</t>
+          <t>400 _नई रांची (पीजी) _ पीपीएसपी (पश्चिम बंगाल) _1</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>0326D044</t>
+          <t>03239041</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>03684013</t>
+          <t>036AD009</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>EH-45</t>
+          <t>ES-62</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>No Key:249</t>
+          <t>WB-31</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5728,578 +5728,578 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>400_MEDINIPUR(PG)_CHANDITALA(WB)_2</t>
+          <t>220_PANDIABILI(PG)_ATRI(GR)_1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>400_मेदिनापुर(पीजी)_चंडीतला(पश्चिम बंगाल)_2</t>
+          <t>220_पांडियाबिली(पीजी)_एटीआरआई(जीआर)_1</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0326D047</t>
+          <t>0323D039</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>03684016</t>
+          <t>No Key:268</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>EH-46</t>
+          <t>ES-91</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>No Key:250</t>
+          <t>OR-24</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>WB</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>400_MEDNIPUR(PG)_KHARAGPUR(WB) _1</t>
+          <t>220_PANDIABILI(PG)_ATRI(GR)_2</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>400 _मेदिनीपुर (पीजी) _ खड़गपुर (पश्चिम बंगाल) _1</t>
+          <t>220_पांडियाबिली(पीजी)_एटीआरआई(जीआर)_2</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0326D039</t>
+          <t>0323D037</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>03682023</t>
+          <t>No Key:269</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>EH-43</t>
+          <t>ET-25</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>No Key:251</t>
+          <t>OR-28</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>WB</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>400_MEDNIPUR(PG)_KHARAGPUR(WB) _2</t>
+          <t>220_PANDIABILI(PG)_PRATAPGARH(GR)_1</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>400 _मेदिनीपुर (पीजी) _ खड़गपुर (पश्चिम बंगाल) _2</t>
+          <t>220_पांडियाबिली(पीजी)_प्रतापगढ़(जीआर)_1</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0326D042</t>
+          <t>0323D031</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>03682020</t>
+          <t>030D6005</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>EH-44</t>
+          <t>No Key:270</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>No Key:252</t>
+          <t>No Key:270</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>WB</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>400_MUZAFFERPUR(PG)_DHALKABARI(NEPAL)_1</t>
+          <t>220_PANDIABILI(PG)_PRATAPGARH(GR)_2</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>400_मुजफ्फरपुर (पीजी) _ धलकेबार (नेपाल) _1</t>
+          <t>220_पांडियाबिली(पीजी)_प्रतापगढ़(जीआर)_2</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>03220076</t>
+          <t>0323D029</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>No Key:255</t>
+          <t>030D6008</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ES-07</t>
+          <t>No Key:271</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>NP-02</t>
+          <t>No Key:271</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>400_MUZAFFERPUR(PG)_DHALKABARI(NEPAL)_2</t>
+          <t>220_PANDIABILI(PG)_SAMAN(GR)_1</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>400_मुजफ्फरपुर (पीजी) _ धलकेबार (नेपाल) _2</t>
+          <t>220_पांडियाबिली(पीजी)_सामन(जीआर)_1</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>03220074</t>
+          <t>0323D033</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>No Key:256</t>
+          <t>No Key:272</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ES-09</t>
+          <t>ES-92</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>NP-03</t>
+          <t>OR-25</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>400_NEW RANCHI(PG)_PPSP(WB)_1</t>
+          <t>220_PANDIABILI(PG)_SAMAN(GR)_2</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>400 _नई रांची (पीजी) _ पीपीएसपी (पश्चिम बंगाल) _1</t>
+          <t>220_पांडियाबिली(पीजी)_सामन(जीआर)_2</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>03239041</t>
+          <t>0323D035</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>036AD009</t>
+          <t>No Key:273</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ES-62</t>
+          <t>ET-26</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>WB-31</t>
+          <t>OR-29</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>WB</t>
+          <t>GR</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>220_PANDIABILI(PG)_ATRI(GR)_1</t>
+          <t>400_PATNA(PG)_NAUBATPUR(BH)_1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>220_पांडियाबिली(पीजी)_एटीआरआई(जीआर)_1</t>
+          <t>400_पटना(पीजी)_नौबतपुर(बीएच)_1</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0323D039</t>
+          <t>03203034</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>No Key:268</t>
+          <t>03BCB134</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ES-91</t>
+          <t>EP-42</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>OR-24</t>
+          <t>BR-15</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>No Key:276</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>BH</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>220_PANDIABILI(PG)_ATRI(GR)_2</t>
+          <t>400_RANCHI(PG)_RAGHUNATHPUR(DV)_1</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>220_पांडियाबिली(पीजी)_एटीआरआई(जीआर)_2</t>
+          <t>400 _रांची(पीजी) _ रघुनाथपुर (डीवी) _1</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0323D037</t>
+          <t>0320B007</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>No Key:269</t>
+          <t>03D1C007</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ET-25</t>
+          <t>EM-41</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>OR-28</t>
+          <t>DV-39</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>DV</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>220_PANDIABILI(PG)_PRATAPGARH(GR)_1</t>
+          <t>400_SASARAM(PG)_ALLAHABAD(NR)</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>220_पांडियाबिली(पीजी)_प्रतापगढ़(जीआर)_1</t>
+          <t>400_सासाराम (पीजी)_प्रयागराज (एनआर)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0323D031</t>
+          <t>0321C009</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>030D6005</t>
+          <t>0325C103</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>No Key:270</t>
+          <t>EP-08</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>No Key:270</t>
+          <t>No Key:285</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>IMP_FAR_END</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>220_PANDIABILI(PG)_PRATAPGARH(GR)_2</t>
+          <t>400_SASARAM(PG)_SARANAD(NR)_</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>220_पांडियाबिली(पीजी)_प्रतापगढ़(जीआर)_2</t>
+          <t>400_सासाराम (पीजी)_सारानाड (एनआर)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0323D029</t>
+          <t>0321C012</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>030D6008</t>
+          <t>0327A176</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>No Key:271</t>
+          <t>EP-07</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>No Key:271</t>
+          <t>No Key:286</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>220_PANDIABILI(PG)_SAMAN(GR)_1</t>
+          <t>400_SILUGURI400(PG)_BONGAIGOAN(NE)_1</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>220_पांडियाबिली(पीजी)_सामन(जीआर)_1</t>
+          <t>400_सिलीगुड़ी 400 (पीजी) _बोंगईगांव_1</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0323D033</t>
+          <t>03219022</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>No Key:272</t>
+          <t>0327A122</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ES-92</t>
+          <t>ER-37</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>OR-25</t>
+          <t>No Key:287</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>220_PANDIABILI(PG)_SAMAN(GR)_2</t>
+          <t>400_SILUGURI400(PG)_BONGAIGOAN(NE)_2</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>220_पांडियाबिली(पीजी)_सामन(जीआर)_2</t>
+          <t>400_सिलीगुड़ी 400 (पीजी) _बोंगईगांव_2</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0323D035</t>
+          <t>03219017</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>No Key:273</t>
+          <t>0327A124</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ET-26</t>
+          <t>ER-21</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>OR-29</t>
+          <t>No Key:288</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>PG_ER2</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>400_PATNA(PG)_NAUBATPUR(BH)_1</t>
+          <t>400/132 MOTIHARI_ICT_1</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>400_पटना(पीजी)_नौबतपुर(बीएच)_1</t>
+          <t>400/132_मोतीहरी (पीजी)_आईसीटी_1</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>03203034</t>
+          <t>0324C013</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>03BCB134</t>
+          <t>No Key:293</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>EP-42</t>
+          <t>DM-18</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>BR-15</t>
+          <t>No Key:293</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>No Key:276</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>400_PURNEA_NEW(PG)_GOKARNA(WB)</t>
+          <t>400/132 MOTIHARI_ICT_2</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>400_पूर्णिया-नई (पीजी) _गोकरणा (पश्चिम बंगाल) _1</t>
+          <t>400/132_मोतीहरी (पीजी)_आईसीटी_2</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>0321B050</t>
+          <t>0324C017</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>03690023</t>
+          <t>No Key:294</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ET-58</t>
+          <t>DM-19</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>WB-34</t>
+          <t>No Key:294</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -6309,39 +6309,39 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>WB</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>400_RANCHI(PG)_RAGHUNATHPUR(DV)_1</t>
+          <t>400/132 MOTIHARI_ICT_3</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>400 _रांची(पीजी) _ रघुनाथपुर (डीवी) _1</t>
+          <t>400/132_मोतीहरी (पीजी)_आईसीटी_3</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0320B007</t>
+          <t>0324C021</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>03D1C007</t>
+          <t>No Key:295</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>EM-41</t>
+          <t>DM-32</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>DV-39</t>
+          <t>No Key:295</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -6351,39 +6351,39 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>DV</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>400_SASARAM(PG)_ALLAHABAD(NR)</t>
+          <t>400/220 BIHARSHARIFF_ICT1</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>400_सासाराम (पीजी)_प्रयागराज (एनआर)</t>
+          <t>400/220_बिहारशरीफ (पीजी)_आईसीटी_1</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0321C009</t>
+          <t>0320F021</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0325C103</t>
+          <t>03B7A016</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>EP-08</t>
+          <t>ER-01</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>No Key:285</t>
+          <t>No Key:296</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6393,39 +6393,39 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>IMP_FAR_END</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>400_SASARAM(PG)_SARANAD(NR)_</t>
+          <t>400/220 BIHARSHARIFF_ICT2</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>400_सासाराम (पीजी)_सारानाड (एनआर)</t>
+          <t>400/220_बिहारशरीफ (पीजी)_आईसीटी_2</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>0321C012</t>
+          <t>0320F014</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0327A176</t>
+          <t>03B7A013</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>EP-07</t>
+          <t>ER-02</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>No Key:286</t>
+          <t>No Key:297</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -6442,37 +6442,37 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>400_SILUGURI400(PG)_BONGAIGOAN(NE)_1</t>
+          <t>400/220 BIHARSHARIFF_ICT3</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>400_सिलीगुड़ी 400 (पीजी) _बोंगईगांव_1</t>
+          <t>400/220_बिहारशरीफ (पीजी)_आईसीटी_3</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>03219022</t>
+          <t>0320F030</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0327A122</t>
+          <t>03B7A022</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ER-37</t>
+          <t>ER-03</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>No Key:287</t>
+          <t>No Key:298</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6484,37 +6484,37 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>400_SILUGURI400(PG)_BONGAIGOAN(NE)_2</t>
+          <t>400/220 BIHARSHARIFF_ICT4</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>400_सिलीगुड़ी 400 (पीजी) _बोंगईगांव_2</t>
+          <t>400/220_बिहारशरीफ (पीजी)_आईसीटी_4</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>03219017</t>
+          <t>0320F064</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0327A124</t>
+          <t>03B7A109</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ER-21</t>
+          <t>EH-04</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>No Key:288</t>
+          <t>No Key:299</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>PG_ER2</t>
+          <t>PG_ER1</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6526,32 +6526,32 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>400/132 MOTIHARI_ICT_1</t>
+          <t>400/220 DARBHANGA(PG)_ICT_1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>400/132_मोतीहरी (पीजी)_आईसीटी_1</t>
+          <t>400/220_दरभंगा (पीजी)_आईसीटी_1</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>0324C013</t>
+          <t>03243005</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>No Key:293</t>
+          <t>No Key:303</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>DM-18</t>
+          <t>DM-05</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>No Key:293</t>
+          <t>DM-03</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -6568,32 +6568,32 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>400/132 MOTIHARI_ICT_2</t>
+          <t>400/220 DARBHANGA(PG)_ICT_2</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>400/132_मोतीहरी (पीजी)_आईसीटी_2</t>
+          <t>400/220_दरभंगा (पीजी)_आईसीटी_2</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0324C017</t>
+          <t>03243012</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>No Key:294</t>
+          <t>No Key:304</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>DM-19</t>
+          <t>DM-06</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>No Key:294</t>
+          <t>DM-04</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -6610,121 +6610,121 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>400/132 MOTIHARI_ICT_3</t>
+          <t>400/220 JAKBG(BH)_ICT_1</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>400/132_मोतीहरी (पीजी)_आईसीटी_3</t>
+          <t>400/220 जेएकेबीजी_आईसीटी_1 (बीएच)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>0324C021</t>
+          <t>03BCC012</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>No Key:295</t>
+          <t>No Key:305</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>DM-32</t>
+          <t>No Key:305</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>No Key:295</t>
+          <t>BR-21</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>No Key:305</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>No Key:305</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>400/220 BIHARSHARIFF_ICT1</t>
+          <t>400/220 JAKBG(BH)_ICT_2</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>400/220_बिहारशरीफ (पीजी)_आईसीटी_1</t>
+          <t>400/220 जेएकेबीजी_आईसीटी_2 (बीएच)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0320F021</t>
+          <t>03BCC024</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>03B7A016</t>
+          <t>No Key:306</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ER-01</t>
+          <t>No Key:306</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>No Key:296</t>
+          <t>BR-22</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>No Key:306</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>No Key:306</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>400/220 BIHARSHARIFF_ICT2</t>
+          <t>400/220 PANDIABILI(PG)_ICT_1</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>400/220_बिहारशरीफ (पीजी)_आईसीटी_2</t>
+          <t>400/220_पाण्डियाबिली (पीजी)_आईसीटी_1</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0320F014</t>
+          <t>0323D010</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>03B7A013</t>
+          <t>No Key:307</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ER-02</t>
+          <t>ES-35</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>No Key:297</t>
+          <t>No Key:307</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6736,121 +6736,121 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>400/220 BIHARSHARIFF_ICT3</t>
+          <t>400/220 SAHAR_PG_ICT_1</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>400/220_बिहारशरीफ (पीजी)_आईसीटी_3</t>
+          <t>400/220_सहरसा (पीजी)_आईसीटी_1</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0320F030</t>
+          <t>03279043</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>03B7A022</t>
+          <t>No Key:308</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ER-03</t>
+          <t>EH-85</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>No Key:298</t>
+          <t>No Key:308</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>No Key:308</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>No Key:308</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>400/220 BIHARSHARIFF_ICT4</t>
+          <t>400/220 SAHAR_PG_ICT_2</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>400/220_बिहारशरीफ (पीजी)_आईसीटी_4</t>
+          <t>400/220_सहरसा (पीजी)_आईसीटी_2</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>0320F064</t>
+          <t>03279041</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>03B7A109</t>
+          <t>No Key:309</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>EH-04</t>
+          <t>EH-87</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>No Key:299</t>
+          <t>No Key:309</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>No Key:309</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>No Key:309</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>400/220 DARBHANGA(PG)_ICT_1</t>
+          <t>400/220 PANDIABILI(PG)_ICT_2</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>400/220_दरभंगा (पीजी)_आईसीटी_1</t>
+          <t>400/220_पाण्डियाबिली (पीजी)_आईसीटी_2</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>03243005</t>
+          <t>0323D012</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>No Key:303</t>
+          <t>No Key:310</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>DM-05</t>
+          <t>ES-36</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>DM-03</t>
+          <t>No Key:310</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6862,37 +6862,37 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>400/220 DARBHANGA(PG)_ICT_2</t>
+          <t>400/220_KALABADIA(PG)_ICT_1</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>400/220_दरभंगा (पीजी)_आईसीटी_2</t>
+          <t>400/220_कालबाड़िया (पीजी)_आईसीटी_1</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>03243012</t>
+          <t>0321D019</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>No Key:304</t>
+          <t>No Key:313</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>DM-06</t>
+          <t>EG-22</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>DM-04</t>
+          <t>No Key:313</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>PG_ER1</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6904,247 +6904,247 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>400/220 JAKBG(BH)_ICT_1</t>
+          <t>400/220_KALABADIA(PG)_ICT_3</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>400/220 जेएकेबीजी_आईसीटी_1 (बीएच)</t>
+          <t>400/220_कालबाड़िया (पीजी)_आईसीटी_3</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>03BCC012</t>
+          <t>0321D049</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>No Key:305</t>
+          <t>No Key:314</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>No Key:305</t>
+          <t>EG-21</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>BR-21</t>
+          <t>No Key:314</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>No Key:305</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Key:305</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>400/220 JAKBG(BH)_ICT_2</t>
+          <t>400/221_KALABADIA(PG)_ICT_2</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>400/220 जेएकेबीजी_आईसीटी_2 (बीएच)</t>
+          <t>400/220_कालबाड़िया (पीजी)_आईसीटी_2</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>03BCC024</t>
+          <t>0321D017</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>No Key:306</t>
+          <t>No Key:315</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>No Key:306</t>
+          <t>EG-23</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>BR-22</t>
+          <t>No Key:315</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>No Key:306</t>
+          <t>PG_odisha_project</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Key:306</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>400/220 PANDIABILI(PG)_ICT_1</t>
+          <t>400/220_NAUBATPUR(PG)_ICT_1</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>400/220_पाण्डियाबिली (पीजी)_आईसीटी_1</t>
+          <t>400/220_नौबतपुर (पीजी)_आईसीटी_1</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0323D010</t>
+          <t>03BCB125</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>No Key:307</t>
+          <t>No Key:316</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ES-35</t>
+          <t>No Key:316</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>No Key:307</t>
+          <t>BR-24</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>No Key:316</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>No Key:316</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>400/220 SAHAR_PG_ICT_1</t>
+          <t>400/220_NAUBATPUR(PG)_ICT_2</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>400/220_सहरसा (पीजी)_आईसीटी_1</t>
+          <t>400/220_नौबतपुर (पीजी)_आईसीटी_2</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>03279043</t>
+          <t>03BCB137</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>No Key:308</t>
+          <t>No Key:317</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>EH-85</t>
+          <t>No Key:317</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>No Key:308</t>
+          <t>BR-23</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>No Key:308</t>
+          <t>No Key:317</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Key:308</t>
+          <t>No Key:317</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>400/220 SAHAR_PG_ICT_2</t>
+          <t>66_MELLI(SI)_KALIMPONG(WB)</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>400/220_सहरसा (पीजी)_आईसीटी_2</t>
+          <t>66_मेल्ली (सिक्किम)_कालिमपोंग (पश्चिम बंगाल)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>03279041</t>
+          <t>03F06025</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>No Key:309</t>
+          <t>03689007</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>EH-87</t>
+          <t>SM-51</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>No Key:309</t>
+          <t>WB-59</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>No Key:309</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Key:309</t>
+          <t>WB</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>400/220 PANDIABILI(PG)_ICT_2</t>
+          <t>APNRL</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>400/220_पाण्डियाबिली (पीजी)_आईसीटी_2</t>
+          <t>एपीएनआरएल</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0323D012</t>
+          <t>04247114</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>No Key:310</t>
+          <t>No Key:333</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>ES-36</t>
+          <t>AP-92</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>No Key:310</t>
+          <t>No Key:333</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>MIS_CALC_TO</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -7156,37 +7156,37 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>400/220_KALABADIA(PG)_ICT_1</t>
+          <t>BARH_ST_1</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>400/220_कालबाड़िया (पीजी)_आईसीटी_1</t>
+          <t>बाढ़ प्रक्रम 1</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0321D019</t>
+          <t>04247153</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>No Key:313</t>
+          <t>No Key:334</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>EG-22</t>
+          <t>BH-91</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>No Key:313</t>
+          <t>No Key:334</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>MIS_CALC_TO</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -7198,37 +7198,37 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>400/220_KALABADIA(PG)_ICT_3</t>
+          <t>BARH_ST_2</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>400/220_कालबाड़िया (पीजी)_आईसीटी_3</t>
+          <t>बाढ़ प्रक्रम 2</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0321D049</t>
+          <t>04247239</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>No Key:314</t>
+          <t>No Key:335</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>EG-21</t>
+          <t>BH-94</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>No Key:314</t>
+          <t>No Key:335</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>MIS_CALC_TO</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -7240,200 +7240,200 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>400/221_KALABADIA(PG)_ICT_2</t>
+          <t>BH_DRAWAL</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>400/220_कालबाड़िया (पीजी)_आईसीटी_2</t>
+          <t>बिहार आहरण</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0321D017</t>
+          <t>04247020</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>No Key:315</t>
+          <t>04BA7555</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>EG-23</t>
+          <t>BI-91</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>No Key:315</t>
+          <t>No Key:336</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>PG_odisha_project</t>
+          <t>MIS_CALC_TO</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>MIS_CALC_FAR</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>400/220_NAUBATPUR(PG)_ICT_1</t>
+          <t>CHUJACHEN</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>400/220_नौबतपुर (पीजी)_आईसीटी_1</t>
+          <t>चूजाचेन</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>03BCB125</t>
+          <t>04247115</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>No Key:316</t>
+          <t>No Key:337</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>No Key:316</t>
+          <t>CZ-92</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>BR-24</t>
+          <t>No Key:337</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>No Key:316</t>
+          <t>MIS_CALC_TO</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Key:316</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>400/220_NAUBATPUR(PG)_ICT_2</t>
+          <t>CHUKHA (CHPC)</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>400/220_नौबतपुर (पीजी)_आईसीटी_2</t>
+          <t>चूखा (सीएचपीसी)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>03BCB137</t>
+          <t>04247112</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>No Key:317</t>
+          <t>No Key:338</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>No Key:317</t>
+          <t>CU-91</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>BR-23</t>
+          <t>No Key:338</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>No Key:317</t>
+          <t>MIS_CALC_TO</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Key:317</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>66_MELLI(SI)_KALIMPONG(WB)</t>
+          <t>DIKCHU</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>66_मेल्ली (सिक्किम)_कालिमपोंग (पश्चिम बंगाल)</t>
+          <t>डिकचु</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>03F06025</t>
+          <t>04247193</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>03689007</t>
+          <t>No Key:339</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>SM-51</t>
+          <t>DK-92</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>WB-59</t>
+          <t>No Key:339</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>MIS_CALC_TO</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>WB</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>APNRL</t>
+          <t>DSTPP</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>एपीएनआरएल</t>
+          <t>डीएसटीपीपी</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>04247114</t>
+          <t>04247765</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>No Key:333</t>
+          <t>No Key:340</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>AP-92</t>
+          <t>DP-92</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>No Key:333</t>
+          <t>No Key:340</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -7450,32 +7450,32 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BARH_ST_1</t>
+          <t>DV_DRAWAL</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>बाढ़ प्रक्रम 1</t>
+          <t>डीवीसी  आहरण</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>04247153</t>
+          <t>04247030</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>No Key:334</t>
+          <t>04D9B109</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>BH-91</t>
+          <t>DV-91</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>No Key:334</t>
+          <t>No Key:341</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -7485,39 +7485,39 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>MIS_CALC_FAR</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BARH_ST_2</t>
+          <t>FARAKKA STPS-3</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>बाढ़ प्रक्रम 2</t>
+          <t>फरक्का एसटीपीएस-3</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>04247239</t>
+          <t>04247102</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>No Key:335</t>
+          <t>No Key:342</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>BH-94</t>
+          <t>FK-94</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>No Key:335</t>
+          <t>No Key:342</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -7534,32 +7534,32 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BH_DRAWAL</t>
+          <t>FARAKKA STPS1&amp;2</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>बिहार आहरण</t>
+          <t>फरक्का एसटीपीएस 1&amp;2</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>04247020</t>
+          <t>04247101</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>04BA7555</t>
+          <t>No Key:343</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>BI-91</t>
+          <t>FK-92</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>No Key:336</t>
+          <t>No Key:343</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -7569,39 +7569,39 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>MIS_CALC_FAR</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>CHUJACHEN</t>
+          <t>GMR</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>चूजाचेन</t>
+          <t>जीएमआर</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>04247115</t>
+          <t>04247152</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>No Key:337</t>
+          <t>No Key:344</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>CZ-92</t>
+          <t>GM-92</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>No Key:337</t>
+          <t>No Key:344</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -7618,32 +7618,32 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CHUKHA (CHPC)</t>
+          <t>GR_DRAWAL</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>चूखा (सीएचपीसी)</t>
+          <t>ओडिशा आहरण</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>04247112</t>
+          <t>04247060</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>No Key:338</t>
+          <t>06006114</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>CU-91</t>
+          <t>OR-91</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>No Key:338</t>
+          <t>No Key:345</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -7653,39 +7653,39 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>MIS_CALC_FAR</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>DIKCHU</t>
+          <t>IR Bangladesh</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>डिकचु</t>
+          <t>बांग्लादेश अंतरराष्ट्रीय</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>04247193</t>
+          <t>04247066</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>No Key:339</t>
+          <t>No Key:346</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>DK-92</t>
+          <t>BN-91</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>No Key:339</t>
+          <t>No Key:346</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -7702,32 +7702,32 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>DSTPP</t>
+          <t>IR Nepal</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>डीएसटीपीपी</t>
+          <t>नेपाल अंतरराष्ट्रीय</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>04247765</t>
+          <t>04247068</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>No Key:340</t>
+          <t>No Key:347</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>DP-92</t>
+          <t>NP-91</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>No Key:340</t>
+          <t>No Key:347</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -7744,32 +7744,32 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>DV_DRAWAL</t>
+          <t>JH_DRAWAL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>डीवीसी  आहरण</t>
+          <t>झारखण्ड आहरण</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>04247030</t>
+          <t>04247040</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>04D9B109</t>
+          <t>No Key:348</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>DV-91</t>
+          <t>JS-91</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>No Key:341</t>
+          <t>No Key:348</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -7779,39 +7779,39 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>MIS_CALC_FAR</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>FARAKKA STPS-3</t>
+          <t>JITPL</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>फरक्का एसटीपीएस-3</t>
+          <t>जेआईटीपीएल</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>04247102</t>
+          <t>04247159</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>No Key:342</t>
+          <t>No Key:349</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>FK-94</t>
+          <t>JD-92</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>No Key:342</t>
+          <t>No Key:349</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -7828,32 +7828,32 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>FARAKKA STPS1&amp;2</t>
+          <t>JORETHANG</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>फरक्का एसटीपीएस 1&amp;2</t>
+          <t>जोरेथाँग</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>04247101</t>
+          <t>04247228</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>No Key:343</t>
+          <t>No Key:350</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>FK-92</t>
+          <t>JL-92</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>No Key:343</t>
+          <t>No Key:350</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -7870,32 +7870,32 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>GMR</t>
+          <t>KAHALGAON STPS-1</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>जीएमआर</t>
+          <t>कहलगांव एसटीपीएस-1</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>04247152</t>
+          <t>04247103</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>No Key:344</t>
+          <t>No Key:351</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>GM-92</t>
+          <t>KH-92</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>No Key:344</t>
+          <t>No Key:351</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7912,32 +7912,32 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>GR_DRAWAL</t>
+          <t>KAHALGAON STPS-2</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ओडिशा आहरण</t>
+          <t>कहलगांव एसटीपीएस-2</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>04247060</t>
+          <t>04247104</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>06006114</t>
+          <t>No Key:352</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>OR-91</t>
+          <t>KG-92</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>No Key:345</t>
+          <t>No Key:352</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7947,39 +7947,39 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>MIS_CALC_FAR</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>IR Bangladesh</t>
+          <t>KBUNL STG-II</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>बांग्लादेश अंतरराष्ट्रीय</t>
+          <t>केबीयूएनएल चरण-II</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>04247066</t>
+          <t>04247359</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>No Key:346</t>
+          <t>No Key:353</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>BN-91</t>
+          <t>KB-92</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>No Key:346</t>
+          <t>No Key:353</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7996,32 +7996,32 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>IR Nepal</t>
+          <t>KURICHU_GEN</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>नेपाल अंतरराष्ट्रीय</t>
+          <t>कुरिचु जनरेशन</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>04247068</t>
+          <t>04247110</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>No Key:347</t>
+          <t>No Key:354</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>NP-91</t>
+          <t>KR-91</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>No Key:347</t>
+          <t>No Key:354</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -8038,32 +8038,32 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>JH_DRAWAL</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>झारखण्ड आहरण</t>
+          <t>क्षति</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>04247040</t>
+          <t>04247356</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>No Key:348</t>
+          <t>No Key:355</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>JS-91</t>
+          <t>RN-97</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>No Key:348</t>
+          <t>No Key:355</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -8080,32 +8080,32 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>JITPL</t>
+          <t>MANGDECHU</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>जेआईटीपीएल</t>
+          <t>मांगदेचू</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>04247159</t>
+          <t>04247206</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>No Key:349</t>
+          <t>No Key:356</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>JD-92</t>
+          <t>MN-92</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>No Key:349</t>
+          <t>No Key:356</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -8122,32 +8122,32 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>JORETHANG</t>
+          <t>MPL</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>जोरेथाँग</t>
+          <t>एमपीएल</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>04247228</t>
+          <t>04247158</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>No Key:350</t>
+          <t>No Key:357</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>JL-92</t>
+          <t>MR-92</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>No Key:350</t>
+          <t>No Key:357</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -8164,32 +8164,32 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>KAHALGAON STPS-1</t>
+          <t>NABINAGR</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>कहलगांव एसटीपीएस-1</t>
+          <t>नबी नगर</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>04247103</t>
+          <t>04247160</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>No Key:351</t>
+          <t>No Key:358</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>KH-92</t>
+          <t>NB-92</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>No Key:351</t>
+          <t>No Key:358</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -8206,32 +8206,32 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>KAHALGAON STPS-2</t>
+          <t>NER_DRL</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>कहलगांव एसटीपीएस-2</t>
+          <t>पुर्वोत्तर क्षेत्रीय आहरण</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>04247104</t>
+          <t>04247065</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>No Key:352</t>
+          <t>No Key:359</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>KG-92</t>
+          <t>NE-91</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>No Key:352</t>
+          <t>No Key:359</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -8248,32 +8248,32 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>KBUNL STG-II</t>
+          <t>NPGC</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>केबीयूएनएल चरण-II</t>
+          <t xml:space="preserve">एनपीजीसी </t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>04247359</t>
+          <t>04247417</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>No Key:353</t>
+          <t>No Key:360</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>KB-92</t>
+          <t>NG-92</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>No Key:353</t>
+          <t>No Key:360</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -8290,32 +8290,32 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>KURICHU_GEN</t>
+          <t>NPGC (INFIRM)</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>कुरिचु जनरेशन</t>
+          <t>एनपीजीसी (अस्थिर)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>04247110</t>
+          <t>03252020</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>No Key:354</t>
+          <t>No Key:361</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>KR-91</t>
+          <t>NG-93</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>No Key:354</t>
+          <t>No Key:361</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -8332,32 +8332,32 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Loss</t>
+          <t>NR_DRL</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>क्षति</t>
+          <t>उत्तर क्षेत्रीय आहरण</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>04247356</t>
+          <t>04247061</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>No Key:355</t>
+          <t>No Key:362</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>RN-97</t>
+          <t>NR-91</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>No Key:355</t>
+          <t>No Key:362</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -8374,32 +8374,32 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MANGDECHU</t>
+          <t>RANGIT GEN MW</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>मांगदेचू</t>
+          <t>रंगीत जनरेशन</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>04247206</t>
+          <t>04247109</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>No Key:356</t>
+          <t>No Key:363</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>MN-92</t>
+          <t>RG-92</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>No Key:356</t>
+          <t>No Key:363</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -8416,32 +8416,32 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MPL</t>
+          <t>RONGICHU</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>एमपीएल</t>
+          <t>रोनगिचू</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>04247158</t>
+          <t>04247817</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>No Key:357</t>
+          <t>No Key:364</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>MR-92</t>
+          <t>RO-92</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>No Key:357</t>
+          <t>No Key:364</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -8458,32 +8458,32 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>NABINAGR</t>
+          <t>SI_DRAWAL</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>नबी नगर</t>
+          <t>सिक्किम आहरण</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>04247160</t>
+          <t>04247050</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>No Key:358</t>
+          <t>No Key:365</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>NB-92</t>
+          <t>SM-91</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>No Key:358</t>
+          <t>No Key:365</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -8500,32 +8500,32 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>NER_DRL</t>
+          <t>SR_DRL</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>पुर्वोत्तर क्षेत्रीय आहरण</t>
+          <t>दक्षिण क्षेत्रीय आहरण</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>04247065</t>
+          <t>04247063</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>No Key:359</t>
+          <t>No Key:366</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>NE-91</t>
+          <t>SR-91</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>No Key:359</t>
+          <t>No Key:366</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -8542,32 +8542,32 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>NPGC</t>
+          <t>TALA GEN MW</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve">एनपीजीसी </t>
+          <t>ताला जनरेशन</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>04247417</t>
+          <t>04247111</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>No Key:360</t>
+          <t>No Key:367</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>NG-92</t>
+          <t>TH-91</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>No Key:360</t>
+          <t>No Key:367</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -8584,32 +8584,32 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>NPGC (INFIRM)</t>
+          <t>TALCHER STPS-1</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>एनपीजीसी (अस्थिर)</t>
+          <t>तालचर एसटीपीएस-1</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>03252020</t>
+          <t>04247105</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>No Key:361</t>
+          <t>No Key:368</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>NG-93</t>
+          <t>TL-92</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>No Key:361</t>
+          <t>No Key:368</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -8626,32 +8626,32 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>NR_DRL</t>
+          <t>TASHIDING</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>उत्तर क्षेत्रीय आहरण</t>
+          <t>ताशीडिंग</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>04247061</t>
+          <t>04247620</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>No Key:362</t>
+          <t>No Key:369</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>NR-91</t>
+          <t>TD-92</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>No Key:362</t>
+          <t>No Key:369</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -8668,32 +8668,32 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>RANGIT GEN MW</t>
+          <t>TEESTA (TST)</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>रंगीत जनरेशन</t>
+          <t>तीस्ता (टीएसटी)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>04247109</t>
+          <t>04247108</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>No Key:363</t>
+          <t>No Key:370</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>RG-92</t>
+          <t>TS-92</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>No Key:363</t>
+          <t>No Key:370</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -8710,32 +8710,32 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RONGICHU</t>
+          <t>TEESTA-III</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>रोनगिचू</t>
+          <t>तीस्ता-III</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>04247817</t>
+          <t>04247697</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>No Key:364</t>
+          <t>No Key:371</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>RO-92</t>
+          <t>TU-92</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>No Key:364</t>
+          <t>No Key:371</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -8752,32 +8752,32 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SI_DRAWAL</t>
+          <t>WB_DRAWAL</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>सिक्किम आहरण</t>
+          <t>पश्चिम बंगाल आहरण</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>04247050</t>
+          <t>04247010</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>No Key:365</t>
+          <t>04693308</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SM-91</t>
+          <t>WB-91</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>No Key:365</t>
+          <t>No Key:372</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -8787,39 +8787,39 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>MIS_CALC_FAR</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SR_DRL</t>
+          <t>WR_DRL</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>दक्षिण क्षेत्रीय आहरण</t>
+          <t>पश्चिम क्षेत्रीय आहरण</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>04247063</t>
+          <t>04247064</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>No Key:366</t>
+          <t>No Key:373</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SR-91</t>
+          <t>WR-91</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>No Key:366</t>
+          <t>No Key:373</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -8828,300 +8828,6 @@
         </is>
       </c>
       <c r="H200" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>TALA GEN MW</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>ताला जनरेशन</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>04247111</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>No Key:367</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>TH-91</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>No Key:367</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>MIS_CALC_TO</t>
-        </is>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>TALCHER STPS-1</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>तालचर एसटीपीएस-1</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>04247105</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>No Key:368</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>TL-92</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>No Key:368</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>MIS_CALC_TO</t>
-        </is>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>TASHIDING</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>ताशीडिंग</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>04247620</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>No Key:369</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>TD-92</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>No Key:369</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>MIS_CALC_TO</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>TEESTA (TST)</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>तीस्ता (टीएसटी)</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>04247108</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>No Key:370</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>TS-92</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>No Key:370</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>MIS_CALC_TO</t>
-        </is>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>TEESTA-III</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>तीस्ता-III</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>04247697</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>No Key:371</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>TU-92</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>No Key:371</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>MIS_CALC_TO</t>
-        </is>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>WB_DRAWAL</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>पश्चिम बंगाल आहरण</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>04247010</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>04693308</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>WB-91</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>No Key:372</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>MIS_CALC_TO</t>
-        </is>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>MIS_CALC_FAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>WR_DRL</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>पश्चिम क्षेत्रीय आहरण</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>04247064</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>No Key:373</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>WR-91</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>No Key:373</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>MIS_CALC_TO</t>
-        </is>
-      </c>
-      <c r="H207" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
